--- a/Second Semester/MIB Decision-Making and Analytical Skills/P19_01.xlsx
+++ b/Second Semester/MIB Decision-Making and Analytical Skills/P19_01.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\My Books\DADM 5e\Problem Files\Chapter 19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/Desktop/IBS-class/Second Semester/MIB Decision-Making and Analytical Skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAB38D2-E0BA-2A41-B33F-8A19EF1C9C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="3820" yWindow="500" windowWidth="21580" windowHeight="11000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="A-B" sheetId="3" r:id="rId2"/>
+    <sheet name="A-C" sheetId="7" r:id="rId3"/>
+    <sheet name="A-D" sheetId="6" r:id="rId4"/>
+    <sheet name="B-C" sheetId="4" r:id="rId5"/>
+    <sheet name="B-D" sheetId="8" r:id="rId6"/>
+    <sheet name="C-D" sheetId="5" r:id="rId7"/>
+    <sheet name="All" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Data_Sheet1">Data!$A$2:$D$9</definedName>
@@ -21,12 +29,25 @@
     <definedName name="Plan_C_Sheet1">Data!$C$1:$C$9</definedName>
     <definedName name="Plan_D_Sheet1">Data!$D$1:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="22">
   <si>
     <t>Plan A</t>
   </si>
@@ -38,14 +59,75 @@
   </si>
   <si>
     <t>Plan D</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -60,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -68,15 +150,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -96,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,6 +276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -206,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,140 +520,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>36</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>39</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>44</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>39</v>
+      </c>
+      <c r="M2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>40</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>45</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>43</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>32</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>54</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>38</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>44</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>53</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>46</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>41</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
         <v>41</v>
       </c>
-      <c r="B7" s="1">
+      <c r="L6">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>35</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F7">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>44</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>35</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>37</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>42</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>39</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>37</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>39</v>
+      </c>
+      <c r="M9">
         <v>48</v>
       </c>
     </row>
@@ -524,4 +824,1130 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC763FD3-B17E-194F-9FAD-9AE21CC03046}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>314</v>
+      </c>
+      <c r="D5">
+        <v>39.25</v>
+      </c>
+      <c r="E5">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>353</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44.125</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45.839285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>95.0625</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>95.0625</v>
+      </c>
+      <c r="E11">
+        <v>2.9034633215162255</v>
+      </c>
+      <c r="F11">
+        <v>0.1104730790335498</v>
+      </c>
+      <c r="G11">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>458.375</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>32.741071428571431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>553.4375</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C467A9-BB52-8541-8930-501D8B598FCC}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>314</v>
+      </c>
+      <c r="D5">
+        <v>39.25</v>
+      </c>
+      <c r="E5">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>315</v>
+      </c>
+      <c r="D6" s="2">
+        <v>39.375</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.9821428571428577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E11">
+        <v>4.2194092827004216E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.94912667928514516</v>
+      </c>
+      <c r="G11">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>207.375</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>14.8125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>207.4375</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD493D6-77F3-5C49-A888-120A2407CA49}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>314</v>
+      </c>
+      <c r="D5">
+        <v>39.25</v>
+      </c>
+      <c r="E5">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>342</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42.75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38.785714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>1.6772616136919314</v>
+      </c>
+      <c r="F11">
+        <v>0.21623918524101654</v>
+      </c>
+      <c r="G11">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>409</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>29.214285714285715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>458</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDED7A2E-9EC9-9E4C-AB34-A3D9FC7D4760}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>353</v>
+      </c>
+      <c r="D5">
+        <v>44.125</v>
+      </c>
+      <c r="E5">
+        <v>45.839285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>315</v>
+      </c>
+      <c r="D6" s="2">
+        <v>39.375</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.9821428571428577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>90.25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>90.25</v>
+      </c>
+      <c r="E11">
+        <v>3.2335252719129879</v>
+      </c>
+      <c r="F11">
+        <v>9.3736705102745371E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>390.75</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>27.910714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>481</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CECDB77-8940-544C-80F8-90B2C0D53A41}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>353</v>
+      </c>
+      <c r="D5">
+        <v>44.125</v>
+      </c>
+      <c r="E5">
+        <v>45.839285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>342</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42.75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38.785714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>7.5625</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>7.5625</v>
+      </c>
+      <c r="E11">
+        <v>0.17872968980797638</v>
+      </c>
+      <c r="F11">
+        <v>0.67888876488039152</v>
+      </c>
+      <c r="G11">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>592.375</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>42.3125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>599.9375</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB266EFA-4FB1-AE4C-A31D-7A33EFCA0047}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>315</v>
+      </c>
+      <c r="D5">
+        <v>39.375</v>
+      </c>
+      <c r="E5">
+        <v>9.9821428571428577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>342</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42.75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38.785714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>45.5625</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>45.5625</v>
+      </c>
+      <c r="E11">
+        <v>1.8685463200292931</v>
+      </c>
+      <c r="F11">
+        <v>0.19319149760554427</v>
+      </c>
+      <c r="G11">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>341.375</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>24.383928571428573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>386.9375</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6077A20B-5A37-F643-B8ED-9C57AAF96099}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>314</v>
+      </c>
+      <c r="D5">
+        <v>39.25</v>
+      </c>
+      <c r="E5">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>353</v>
+      </c>
+      <c r="D6">
+        <v>44.125</v>
+      </c>
+      <c r="E6">
+        <v>45.839285714285715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>315</v>
+      </c>
+      <c r="D7">
+        <v>39.375</v>
+      </c>
+      <c r="E7">
+        <v>9.9821428571428577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>342</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42.75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>38.785714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>143.75</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>47.916666666666664</v>
+      </c>
+      <c r="E13">
+        <v>1.6776075857038657</v>
+      </c>
+      <c r="F13">
+        <v>0.19441940484441464</v>
+      </c>
+      <c r="G13">
+        <v>2.9466852660172647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>799.75</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>28.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>943.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>